--- a/项目清单.xlsx
+++ b/项目清单.xlsx
@@ -14,14 +14,14 @@
     <sheet name="字码" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OA系统!$A$1:$I$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OA系统!$A$1:$L$86</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="175">
   <si>
     <t>序号</t>
   </si>
@@ -158,6 +158,45 @@
     <t>实现方式</t>
   </si>
   <si>
+    <t>预计开始日期</t>
+  </si>
+  <si>
+    <t>预计结束日期</t>
+  </si>
+  <si>
+    <t>实际开始日期</t>
+  </si>
+  <si>
+    <t>实际结束日期</t>
+  </si>
+  <si>
+    <t>基础准备</t>
+  </si>
+  <si>
+    <t>企业微信接口分析</t>
+  </si>
+  <si>
+    <t>OA基本需要调研</t>
+  </si>
+  <si>
+    <t>CCFlow前端分析</t>
+  </si>
+  <si>
+    <t>CCFlow后端分析</t>
+  </si>
+  <si>
+    <t>CCFLow数据库分析</t>
+  </si>
+  <si>
+    <t>CCGPM前端分析</t>
+  </si>
+  <si>
+    <t>CCGPM后端分析</t>
+  </si>
+  <si>
+    <t>CCGPM数据库分析</t>
+  </si>
+  <si>
     <t>企业微信功能封装</t>
   </si>
   <si>
@@ -165,6 +204,9 @@
   </si>
   <si>
     <t>自主开发</t>
+  </si>
+  <si>
+    <t>功能封装</t>
   </si>
   <si>
     <t>人员管理</t>
@@ -511,10 +553,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -533,37 +575,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,16 +596,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,7 +613,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,9 +658,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,7 +667,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,14 +682,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,8 +703,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,7 +726,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,79 +864,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,13 +888,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,55 +912,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,60 +990,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -995,10 +1001,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1019,6 +1023,62 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1035,149 +1095,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1196,12 +1256,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1214,13 +1295,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1559,41 +1640,41 @@
     <col min="4" max="4" width="9.66666666666667" customWidth="1"/>
     <col min="5" max="6" width="7.66666666666667" customWidth="1"/>
     <col min="7" max="10" width="14.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="22.2222222222222" style="11" customWidth="1"/>
+    <col min="11" max="11" width="22.2222222222222" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1604,7 +1685,7 @@
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1620,7 +1701,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="22" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1631,7 +1712,7 @@
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1643,13 +1724,13 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="20">
         <v>43629</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1660,7 +1741,7 @@
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="3"/>
@@ -1672,7 +1753,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="22" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1683,7 +1764,7 @@
       <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="3"/>
@@ -1695,7 +1776,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="15"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3">
@@ -1704,7 +1785,7 @@
       <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1720,7 +1801,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="15"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" ht="43.2" spans="1:11">
       <c r="A7" s="3">
@@ -1729,7 +1810,7 @@
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1741,17 +1822,17 @@
       <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="20">
         <v>43630</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="20">
         <v>43644</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="20">
         <v>43630</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="22" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1762,7 +1843,7 @@
       <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="3"/>
@@ -1774,7 +1855,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="15"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3">
@@ -1783,7 +1864,7 @@
       <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="3"/>
@@ -1795,7 +1876,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="15"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="3">
@@ -1804,7 +1885,7 @@
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3"/>
@@ -1818,7 +1899,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="15"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="3">
@@ -1827,7 +1908,7 @@
       <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="3"/>
@@ -1841,7 +1922,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="15"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3">
@@ -1850,7 +1931,7 @@
       <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3"/>
@@ -1862,7 +1943,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="15"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3">
@@ -1871,7 +1952,7 @@
       <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="3"/>
@@ -1883,7 +1964,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="15"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" ht="43.2" spans="1:11">
       <c r="A14" s="3">
@@ -1892,7 +1973,7 @@
       <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1904,13 +1985,13 @@
       <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="20">
         <v>43629</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="22" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1927,7 +2008,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="15"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3">
@@ -1942,7 +2023,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="15"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3">
@@ -1957,7 +2038,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="15"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3">
@@ -1972,7 +2053,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="15"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3">
@@ -1987,7 +2068,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="15"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3">
@@ -2002,7 +2083,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="15"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3">
@@ -2017,7 +2098,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="15"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3">
@@ -2032,7 +2113,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="15"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3">
@@ -2047,7 +2128,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="15"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3">
@@ -2062,7 +2143,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="15"/>
+      <c r="K24" s="22"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2078,12 +2159,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2093,371 +2174,438 @@
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="5" width="18.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="10.7777777777778" customWidth="1"/>
-    <col min="7" max="8" width="9.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="32.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
+    <col min="8" max="11" width="14.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="32.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+    <row r="2" s="6" customFormat="1" spans="1:12">
+      <c r="A2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:12">
+      <c r="A3" s="12"/>
+      <c r="B3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="6" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" s="6" customFormat="1" spans="1:12">
+      <c r="A4" s="12"/>
+      <c r="B4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" s="6" customFormat="1" spans="1:12">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" s="6" customFormat="1" spans="1:12">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:12">
+      <c r="A7" s="12"/>
+      <c r="B7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" s="6" customFormat="1" spans="1:12">
+      <c r="A8" s="12"/>
+      <c r="B8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:12">
+      <c r="A9" s="13"/>
+      <c r="B9" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B10" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+    <row r="11" spans="1:12">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+    <row r="12" spans="1:12">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>66</v>
+    <row r="13" spans="1:12">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="C15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="G15" s="3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="G16" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="G17" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="G18" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="G19" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2467,25 +2615,33 @@
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2495,975 +2651,1284 @@
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" t="s">
-        <v>86</v>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="C35" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>60</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="3" t="s">
-        <v>96</v>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" t="s">
+        <v>100</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14" t="s">
+        <v>101</v>
+      </c>
       <c r="C38" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="C40" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="3" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="9"/>
-      <c r="B57" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="9"/>
-      <c r="B58" s="6"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="9"/>
-      <c r="B59" s="6"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="9"/>
-      <c r="B60" s="6"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="9"/>
-      <c r="B61" s="6"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="9"/>
-      <c r="B62" s="6"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="9"/>
-      <c r="B63" s="6"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="H63" s="3"/>
-      <c r="I63" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="9"/>
-      <c r="B64" s="6" t="s">
-        <v>126</v>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H64" s="3"/>
-      <c r="I64" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="9"/>
-      <c r="B65" s="6"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="16"/>
+      <c r="B65" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="C65" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="9"/>
-      <c r="B66" s="6"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="16"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="9"/>
-      <c r="B67" s="6"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="16"/>
+      <c r="B67" s="14"/>
       <c r="C67" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="9"/>
-      <c r="B68" s="6"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="16"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="9"/>
-      <c r="B69" s="6"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="16"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="9"/>
-      <c r="B70" s="6" t="s">
-        <v>134</v>
-      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="16"/>
+      <c r="B70" s="14"/>
       <c r="C70" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="9"/>
-      <c r="B71" s="6"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="16"/>
+      <c r="B71" s="14"/>
       <c r="C71" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="9"/>
-      <c r="B72" s="6"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="16"/>
+      <c r="B72" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="C72" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="9"/>
-      <c r="B73" s="6"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="16"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="9"/>
-      <c r="B74" s="6"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="16"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="9"/>
-      <c r="B75" s="6"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="16"/>
+      <c r="B75" s="14"/>
       <c r="C75" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="9"/>
-      <c r="B76" s="6"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="16"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="9"/>
-      <c r="B77" s="6"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="16"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="10"/>
-      <c r="B78" s="6"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="16"/>
+      <c r="B78" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="C78" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="16"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="16"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="16"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="16"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="16"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="16"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="16"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="17"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I78">
+  <autoFilter ref="A1:L86">
     <extLst/>
   </autoFilter>
-  <mergeCells count="12">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A26"/>
-    <mergeCell ref="A27:A55"/>
-    <mergeCell ref="A56:A78"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B55"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="B70:B78"/>
+  <mergeCells count="13">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A34"/>
+    <mergeCell ref="A35:A63"/>
+    <mergeCell ref="A64:A86"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B63"/>
+    <mergeCell ref="B65:B71"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="B78:B86"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3493,25 +3958,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -3523,7 +3988,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>26</v>
@@ -3537,7 +4002,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3546,7 +4011,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>26</v>
@@ -3560,7 +4025,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3568,10 +4033,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>26</v>
@@ -3591,10 +4056,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>26</v>
@@ -3614,10 +4079,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>26</v>
@@ -3637,10 +4102,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>26</v>
@@ -3693,179 +4158,179 @@
         <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="1"/>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="1"/>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/项目清单.xlsx
+++ b/项目清单.xlsx
@@ -14,14 +14,14 @@
     <sheet name="字码" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OA系统!$A$1:$L$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OA系统!$A$1:$M$88</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="177">
   <si>
     <t>序号</t>
   </si>
@@ -176,6 +176,9 @@
     <t>企业微信接口分析</t>
   </si>
   <si>
+    <t>企业微信与小程序对接分析</t>
+  </si>
+  <si>
     <t>OA基本需要调研</t>
   </si>
   <si>
@@ -195,6 +198,9 @@
   </si>
   <si>
     <t>CCGPM数据库分析</t>
+  </si>
+  <si>
+    <t>CCGPM整合分析</t>
   </si>
   <si>
     <t>企业微信功能封装</t>
@@ -553,10 +559,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -568,45 +574,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,37 +625,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -659,7 +640,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,15 +655,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,22 +686,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,31 +744,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,13 +786,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +810,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,13 +840,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,31 +876,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,43 +888,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,18 +925,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,15 +993,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1024,16 +1015,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1053,17 +1053,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,11 +1073,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,149 +1095,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1259,49 +1259,64 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1629,7 +1644,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1640,41 +1655,41 @@
     <col min="4" max="4" width="9.66666666666667" customWidth="1"/>
     <col min="5" max="6" width="7.66666666666667" customWidth="1"/>
     <col min="7" max="10" width="14.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="22.2222222222222" style="18" customWidth="1"/>
+    <col min="11" max="11" width="22.2222222222222" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="26" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1685,7 +1700,7 @@
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1701,7 +1716,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="27" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1712,7 +1727,7 @@
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1724,13 +1739,13 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="25">
         <v>43629</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="27" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1741,7 +1756,7 @@
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="3"/>
@@ -1753,7 +1768,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="27" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1764,7 +1779,7 @@
       <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="3"/>
@@ -1776,7 +1791,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="22"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3">
@@ -1785,7 +1800,7 @@
       <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1801,7 +1816,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="22"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" ht="43.2" spans="1:11">
       <c r="A7" s="3">
@@ -1810,7 +1825,7 @@
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1822,17 +1837,17 @@
       <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="25">
         <v>43630</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="25">
         <v>43644</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="25">
         <v>43630</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1843,7 +1858,7 @@
       <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="3"/>
@@ -1855,7 +1870,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="22"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3">
@@ -1864,7 +1879,7 @@
       <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="3"/>
@@ -1876,7 +1891,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="22"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="3">
@@ -1885,7 +1900,7 @@
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3"/>
@@ -1899,7 +1914,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="22"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="3">
@@ -1908,7 +1923,7 @@
       <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="3"/>
@@ -1922,7 +1937,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="22"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3">
@@ -1931,7 +1946,7 @@
       <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3"/>
@@ -1943,7 +1958,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="22"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3">
@@ -1952,7 +1967,7 @@
       <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="3"/>
@@ -1964,7 +1979,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="22"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" ht="43.2" spans="1:11">
       <c r="A14" s="3">
@@ -1973,7 +1988,7 @@
       <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1985,13 +2000,13 @@
       <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="25">
         <v>43629</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="27" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2008,7 +2023,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="22"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3">
@@ -2023,7 +2038,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="22"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3">
@@ -2038,7 +2053,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="22"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3">
@@ -2053,7 +2068,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="22"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3">
@@ -2068,7 +2083,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="22"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3">
@@ -2083,7 +2098,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="22"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3">
@@ -2098,7 +2113,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="22"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3">
@@ -2113,7 +2128,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="22"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3">
@@ -2128,7 +2143,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="22"/>
+      <c r="K23" s="27"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3">
@@ -2143,7 +2158,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="22"/>
+      <c r="K24" s="27"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2159,265 +2174,327 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="27.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="5" width="18.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="10.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
-    <col min="8" max="11" width="14.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="32.1111111111111" customWidth="1"/>
+    <col min="7" max="8" width="9.66666666666667" style="7" customWidth="1"/>
+    <col min="9" max="12" width="14.1111111111111" customWidth="1"/>
+    <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:12">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="6" customFormat="1" spans="1:13">
+      <c r="A2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" s="6" customFormat="1" spans="1:12">
-      <c r="A3" s="12"/>
-      <c r="B3" s="10" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="19">
+        <v>43631</v>
+      </c>
+      <c r="J2" s="19">
+        <v>43633</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:13">
+      <c r="A3" s="13"/>
+      <c r="B3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" s="6" customFormat="1" spans="1:12">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="19">
+        <v>43634</v>
+      </c>
+      <c r="J3" s="19">
+        <v>43635</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" s="6" customFormat="1" spans="1:13">
+      <c r="A4" s="14"/>
+      <c r="B4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" s="6" customFormat="1" spans="1:12">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" s="6" customFormat="1" spans="1:13">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" s="6" customFormat="1" spans="1:12">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="19">
+        <v>43647</v>
+      </c>
+      <c r="J5" s="19">
+        <v>43652</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" s="6" customFormat="1" spans="1:13">
+      <c r="A6" s="14"/>
+      <c r="B6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" s="6" customFormat="1" spans="1:12">
-      <c r="A7" s="12"/>
-      <c r="B7" s="10" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="19">
+        <v>43647</v>
+      </c>
+      <c r="J6" s="19">
+        <v>43652</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:13">
+      <c r="A7" s="14"/>
+      <c r="B7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" s="6" customFormat="1" spans="1:12">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="19">
+        <v>43647</v>
+      </c>
+      <c r="J7" s="19">
+        <v>43652</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" s="6" customFormat="1" spans="1:13">
+      <c r="A8" s="14"/>
+      <c r="B8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" s="6" customFormat="1" spans="1:12">
-      <c r="A9" s="13"/>
-      <c r="B9" s="10" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="19">
+        <v>43636</v>
+      </c>
+      <c r="J8" s="19">
+        <v>43642</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" s="6" customFormat="1" spans="1:13">
+      <c r="A9" s="14"/>
+      <c r="B9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="14" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="19">
+        <v>43636</v>
+      </c>
+      <c r="J9" s="19">
+        <v>43642</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" s="6" customFormat="1" spans="1:13">
+      <c r="A10" s="15"/>
+      <c r="B10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="19">
+        <v>43643</v>
+      </c>
+      <c r="J10" s="19">
+        <v>43645</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" s="6" customFormat="1" spans="1:13">
+      <c r="A11" s="16"/>
+      <c r="B11" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="19">
+        <v>43643</v>
+      </c>
+      <c r="J11" s="19">
+        <v>43645</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3" t="s">
+      <c r="B12" s="17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="G12" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="19">
+        <v>43645</v>
+      </c>
+      <c r="J12" s="19">
+        <v>43646</v>
+      </c>
       <c r="K12" s="3"/>
-      <c r="L12" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14" t="s">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17" t="s">
         <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2426,20 +2503,27 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="G13" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="19">
+        <v>43645</v>
+      </c>
+      <c r="J13" s="19">
+        <v>43646</v>
+      </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2448,1487 +2532,1624 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="G14" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="19">
+        <v>43645</v>
+      </c>
+      <c r="J14" s="19">
+        <v>43646</v>
+      </c>
       <c r="K14" s="3"/>
-      <c r="L14" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="14" t="s">
+      <c r="L14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="C15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="19">
+        <v>43645</v>
+      </c>
+      <c r="J15" s="19">
+        <v>43646</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14" t="s">
-        <v>72</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="19">
+        <v>43645</v>
+      </c>
+      <c r="J16" s="19">
+        <v>43646</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="18"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="18"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="18"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="18"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14" t="s">
+      <c r="L20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="M21" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="18"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
+      <c r="M22" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="3"/>
+      <c r="G23" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="18"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="3"/>
+      <c r="G24" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="18"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="3"/>
+      <c r="G25" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="18"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="3"/>
+      <c r="G26" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="18"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="3"/>
+      <c r="G27" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="18"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="G28" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="18"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="3"/>
+      <c r="G29" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="18"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="3"/>
+      <c r="G31" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="18"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" s="3"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="3"/>
+      <c r="G33" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="18"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="3"/>
+      <c r="G34" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="18"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="14" t="s">
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="18"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="18"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" t="s">
-        <v>100</v>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H37" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="18"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14" t="s">
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H38" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="18"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="3" t="s">
-        <v>103</v>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" t="s">
+        <v>102</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="18"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14" t="s">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H40" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="18"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="18"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17" t="s">
+        <v>106</v>
+      </c>
       <c r="C42" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H42" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="18"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H43" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="18"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H44" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="18"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H45" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="18"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H46" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="18"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="3" t="s">
         <v>112</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H47" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" s="18"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H48" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H48" s="18"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H49" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" s="18"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H50" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="18"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H51" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" s="18"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
       <c r="C52" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H52" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" s="18"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H53" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" s="18"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H54" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" s="18"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="3" t="s">
         <v>120</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H55" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="18"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
       <c r="C56" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H56" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" s="18"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H57" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="18"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H58" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" s="18"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
       <c r="C59" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H59" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" s="18"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
       <c r="C60" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H60" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" s="18"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H61" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61" s="18"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H62" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H62" s="18"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
       <c r="C63" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H63" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" s="18"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="15" t="s">
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H64" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G64" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" s="18"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="16"/>
-      <c r="B65" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H65" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H65" s="18"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="16"/>
-      <c r="B66" s="14"/>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>132</v>
+      </c>
       <c r="C66" s="3" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H66" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H66" s="18"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="16"/>
-      <c r="B67" s="14"/>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="21"/>
+      <c r="B67" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="C67" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H67" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H67" s="18"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="16"/>
-      <c r="B68" s="14"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="21"/>
+      <c r="B68" s="17"/>
       <c r="C68" s="3" t="s">
         <v>135</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H68" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H68" s="18"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="16"/>
-      <c r="B69" s="14"/>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="21"/>
+      <c r="B69" s="17"/>
       <c r="C69" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H69" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H69" s="18"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="16"/>
-      <c r="B70" s="14"/>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="21"/>
+      <c r="B70" s="17"/>
       <c r="C70" s="3" t="s">
         <v>137</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H70" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H70" s="18"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="16"/>
-      <c r="B71" s="14"/>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="21"/>
+      <c r="B71" s="17"/>
       <c r="C71" s="3" t="s">
         <v>138</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H71" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H71" s="18"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="3" t="s">
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="21"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="3" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="16"/>
-      <c r="B72" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H72" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H72" s="18"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="16"/>
-      <c r="B73" s="14"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="21"/>
+      <c r="B73" s="17"/>
       <c r="C73" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H73" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H73" s="18"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="16"/>
-      <c r="B74" s="14"/>
+      <c r="M73" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="21"/>
+      <c r="B74" s="17" t="s">
+        <v>142</v>
+      </c>
       <c r="C74" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H74" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H74" s="18"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="16"/>
-      <c r="B75" s="14"/>
+      <c r="M74" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="21"/>
+      <c r="B75" s="17"/>
       <c r="C75" s="3" t="s">
         <v>145</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H75" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H75" s="18"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="16"/>
-      <c r="B76" s="14"/>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="21"/>
+      <c r="B76" s="17"/>
       <c r="C76" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H76" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H76" s="18"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="16"/>
-      <c r="B77" s="14"/>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="21"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="3" t="s">
         <v>147</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H77" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H77" s="18"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="16"/>
-      <c r="B78" s="14" t="s">
+      <c r="M77" s="3"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="21"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H78" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H78" s="18"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="16"/>
-      <c r="B79" s="14"/>
+      <c r="M78" s="3"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="21"/>
+      <c r="B79" s="17"/>
       <c r="C79" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H79" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H79" s="18"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="16"/>
-      <c r="B80" s="14"/>
+      <c r="M79" s="3"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="21"/>
+      <c r="B80" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="C80" s="3" t="s">
         <v>151</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H80" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H80" s="18"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="16"/>
-      <c r="B81" s="14"/>
+      <c r="M80" s="3"/>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="21"/>
+      <c r="B81" s="17"/>
       <c r="C81" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H81" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H81" s="18"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="16"/>
-      <c r="B82" s="14"/>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="21"/>
+      <c r="B82" s="17"/>
       <c r="C82" s="3" t="s">
         <v>153</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H82" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H82" s="18"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="16"/>
-      <c r="B83" s="14"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="21"/>
+      <c r="B83" s="17"/>
       <c r="C83" s="3" t="s">
         <v>154</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H83" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H83" s="18"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="16"/>
-      <c r="B84" s="14"/>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="21"/>
+      <c r="B84" s="17"/>
       <c r="C84" s="3" t="s">
         <v>155</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H84" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H84" s="18"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="16"/>
-      <c r="B85" s="14"/>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="21"/>
+      <c r="B85" s="17"/>
       <c r="C85" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H85" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H85" s="18"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="17"/>
-      <c r="B86" s="14"/>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="21"/>
+      <c r="B86" s="17"/>
       <c r="C86" s="3" t="s">
         <v>157</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H86" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H86" s="18"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="21"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H87" s="18"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="22"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H88" s="18"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L86">
+  <autoFilter ref="A1:M88">
     <extLst/>
   </autoFilter>
   <mergeCells count="13">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A34"/>
-    <mergeCell ref="A35:A63"/>
-    <mergeCell ref="A64:A86"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B63"/>
-    <mergeCell ref="B65:B71"/>
-    <mergeCell ref="B72:B77"/>
-    <mergeCell ref="B78:B86"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A36"/>
+    <mergeCell ref="A37:A65"/>
+    <mergeCell ref="A66:A88"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B65"/>
+    <mergeCell ref="B67:B73"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="B80:B88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3958,25 +4179,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -3988,7 +4209,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>26</v>
@@ -4002,7 +4223,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4011,7 +4232,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>26</v>
@@ -4025,7 +4246,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4033,10 +4254,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>26</v>
@@ -4056,10 +4277,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>26</v>
@@ -4079,10 +4300,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>26</v>
@@ -4102,10 +4323,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>26</v>
@@ -4158,179 +4379,179 @@
         <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1"/>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="1"/>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="1"/>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/项目清单.xlsx
+++ b/项目清单.xlsx
@@ -559,10 +559,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -574,21 +574,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,55 +680,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -678,32 +702,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,7 +711,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,31 +750,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,25 +804,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,25 +834,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,79 +924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,78 +992,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1087,6 +1015,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1095,10 +1095,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1107,137 +1107,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1259,9 +1259,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1280,16 +1277,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1655,41 +1643,41 @@
     <col min="4" max="4" width="9.66666666666667" customWidth="1"/>
     <col min="5" max="6" width="7.66666666666667" customWidth="1"/>
     <col min="7" max="10" width="14.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="22.2222222222222" style="23" customWidth="1"/>
+    <col min="11" max="11" width="22.2222222222222" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1700,7 +1688,7 @@
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1716,7 +1704,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1727,7 +1715,7 @@
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1739,13 +1727,13 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="21">
         <v>43629</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="23" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1756,7 +1744,7 @@
       <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="3"/>
@@ -1768,7 +1756,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="23" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1779,7 +1767,7 @@
       <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="3"/>
@@ -1791,7 +1779,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="27"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3">
@@ -1800,7 +1788,7 @@
       <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1816,7 +1804,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="27"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" ht="43.2" spans="1:11">
       <c r="A7" s="3">
@@ -1825,7 +1813,7 @@
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1837,17 +1825,17 @@
       <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="21">
         <v>43630</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="21">
         <v>43644</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="21">
         <v>43630</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="23" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1858,7 +1846,7 @@
       <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="3"/>
@@ -1870,7 +1858,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="27"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3">
@@ -1879,7 +1867,7 @@
       <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="3"/>
@@ -1891,7 +1879,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="27"/>
+      <c r="K9" s="23"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="3">
@@ -1900,7 +1888,7 @@
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3"/>
@@ -1914,7 +1902,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="27"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="3">
@@ -1923,7 +1911,7 @@
       <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="3"/>
@@ -1937,7 +1925,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="27"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3">
@@ -1946,7 +1934,7 @@
       <c r="B12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3"/>
@@ -1958,7 +1946,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="27"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3">
@@ -1967,7 +1955,7 @@
       <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="3"/>
@@ -1979,7 +1967,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="27"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" ht="43.2" spans="1:11">
       <c r="A14" s="3">
@@ -1988,7 +1976,7 @@
       <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -2000,13 +1988,13 @@
       <c r="F14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="21">
         <v>43629</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="23" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2023,7 +2011,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="27"/>
+      <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3">
@@ -2038,7 +2026,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="27"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3">
@@ -2053,7 +2041,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="27"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3">
@@ -2068,7 +2056,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="27"/>
+      <c r="K18" s="23"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3">
@@ -2083,7 +2071,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="27"/>
+      <c r="K19" s="23"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3">
@@ -2098,7 +2086,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="27"/>
+      <c r="K20" s="23"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3">
@@ -2113,7 +2101,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="27"/>
+      <c r="K21" s="23"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3">
@@ -2128,7 +2116,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="27"/>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3">
@@ -2143,7 +2131,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="27"/>
+      <c r="K23" s="23"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3">
@@ -2158,7 +2146,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="27"/>
+      <c r="K24" s="23"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2179,7 +2167,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2189,283 +2177,289 @@
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="5" width="18.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="10.7777777777778" customWidth="1"/>
-    <col min="7" max="8" width="9.66666666666667" style="7" customWidth="1"/>
+    <col min="7" max="8" width="9.66666666666667" style="1" customWidth="1"/>
     <col min="9" max="12" width="14.1111111111111" customWidth="1"/>
     <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="1" spans="1:13">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="15">
         <v>43631</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="15">
         <v>43633</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="K2" s="15">
+        <v>43632</v>
+      </c>
+      <c r="L2" s="15">
+        <v>43633</v>
+      </c>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" s="6" customFormat="1" spans="1:13">
-      <c r="A3" s="13"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="15">
         <v>43634</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="15">
         <v>43635</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="K3" s="15">
+        <v>43633</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" s="6" customFormat="1" spans="1:13">
-      <c r="A4" s="14"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" s="6" customFormat="1" spans="1:13">
-      <c r="A5" s="14"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="15">
         <v>43647</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="15">
         <v>43652</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
     <row r="6" s="6" customFormat="1" spans="1:13">
-      <c r="A6" s="14"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="15">
         <v>43647</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="15">
         <v>43652</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" s="6" customFormat="1" spans="1:13">
-      <c r="A7" s="14"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="15">
         <v>43647</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="15">
         <v>43652</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" s="6" customFormat="1" spans="1:13">
-      <c r="A8" s="14"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="15">
         <v>43636</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="15">
         <v>43642</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" s="6" customFormat="1" spans="1:13">
-      <c r="A9" s="14"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="15">
         <v>43636</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="15">
         <v>43642</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" s="6" customFormat="1" spans="1:13">
-      <c r="A10" s="15"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="15">
         <v>43643</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="15">
         <v>43645</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" s="6" customFormat="1" spans="1:13">
-      <c r="A11" s="16"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="15">
         <v>43643</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="15">
         <v>43645</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2474,16 +2468,16 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="15">
         <v>43645</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="15">
         <v>43646</v>
       </c>
       <c r="K12" s="3"/>
@@ -2493,8 +2487,8 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2503,16 +2497,16 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="15">
         <v>43645</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="15">
         <v>43646</v>
       </c>
       <c r="K13" s="3"/>
@@ -2522,8 +2516,8 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2532,16 +2526,16 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="15">
         <v>43645</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="15">
         <v>43646</v>
       </c>
       <c r="K14" s="3"/>
@@ -2551,8 +2545,8 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -2561,16 +2555,16 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="15">
         <v>43645</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="15">
         <v>43646</v>
       </c>
       <c r="K15" s="3"/>
@@ -2580,8 +2574,8 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -2590,16 +2584,16 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="15">
         <v>43645</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="15">
         <v>43646</v>
       </c>
       <c r="K16" s="3"/>
@@ -2609,10 +2603,10 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2625,10 +2619,10 @@
       <c r="F17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -2638,8 +2632,8 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2650,10 +2644,10 @@
       <c r="F18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="18"/>
+      <c r="G18" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="14"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -2663,8 +2657,8 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="3" t="s">
         <v>78</v>
       </c>
@@ -2673,10 +2667,10 @@
       <c r="F19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="18"/>
+      <c r="G19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="14"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -2686,8 +2680,8 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="3" t="s">
         <v>79</v>
       </c>
@@ -2696,10 +2690,10 @@
       <c r="F20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="18"/>
+      <c r="G20" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="14"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -2709,8 +2703,8 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="3" t="s">
         <v>80</v>
       </c>
@@ -2719,10 +2713,10 @@
       <c r="F21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="18"/>
+      <c r="G21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="14"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -2732,8 +2726,8 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="3" t="s">
         <v>81</v>
       </c>
@@ -2742,10 +2736,10 @@
       <c r="F22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="18"/>
+      <c r="G22" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="14"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -2755,8 +2749,8 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2765,10 +2759,10 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2776,18 +2770,18 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H24" s="18"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2795,18 +2789,18 @@
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="18"/>
+      <c r="H25" s="14"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -2814,18 +2808,18 @@
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="18"/>
+      <c r="G26" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="14"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -2833,18 +2827,18 @@
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="18"/>
+      <c r="G27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="14"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -2852,18 +2846,18 @@
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="18"/>
+      <c r="G28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="14"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -2871,18 +2865,18 @@
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="18"/>
+      <c r="G29" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="14"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -2890,16 +2884,16 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -2907,18 +2901,18 @@
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" s="18"/>
+      <c r="G31" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="14"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -2926,16 +2920,16 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -2943,18 +2937,18 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="18"/>
+      <c r="G33" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="14"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -2962,18 +2956,18 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="18" t="s">
+      <c r="G34" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="18"/>
+      <c r="H34" s="14"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -2981,18 +2975,18 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H35" s="18"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -3000,18 +2994,18 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="18" t="s">
+      <c r="G36" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H36" s="18"/>
+      <c r="H36" s="14"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -3019,10 +3013,10 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -3033,10 +3027,10 @@
       <c r="F37" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G37" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="18"/>
+      <c r="G37" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="14"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -3044,8 +3038,8 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="3" t="s">
         <v>101</v>
       </c>
@@ -3054,10 +3048,10 @@
       <c r="F38" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H38" s="18"/>
+      <c r="H38" s="14"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -3065,8 +3059,8 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
       <c r="C39" t="s">
         <v>102</v>
       </c>
@@ -3075,10 +3069,10 @@
       <c r="F39" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" s="18"/>
+      <c r="G39" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="14"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -3086,8 +3080,8 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17" t="s">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14" t="s">
         <v>103</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -3098,10 +3092,10 @@
       <c r="F40" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G40" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H40" s="18"/>
+      <c r="G40" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="14"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -3109,8 +3103,8 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="3" t="s">
         <v>105</v>
       </c>
@@ -3119,10 +3113,10 @@
       <c r="F41" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G41" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="18"/>
+      <c r="G41" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="14"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -3130,8 +3124,8 @@
       <c r="M41" s="3"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17" t="s">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14" t="s">
         <v>106</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -3142,10 +3136,10 @@
       <c r="F42" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G42" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H42" s="18"/>
+      <c r="G42" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="14"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -3153,8 +3147,8 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="3" t="s">
         <v>108</v>
       </c>
@@ -3163,10 +3157,10 @@
       <c r="F43" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G43" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="18"/>
+      <c r="G43" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="14"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -3174,8 +3168,8 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="3" t="s">
         <v>109</v>
       </c>
@@ -3184,10 +3178,10 @@
       <c r="F44" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G44" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" s="18"/>
+      <c r="G44" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="14"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -3195,8 +3189,8 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="3" t="s">
         <v>110</v>
       </c>
@@ -3205,10 +3199,10 @@
       <c r="F45" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G45" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H45" s="18"/>
+      <c r="G45" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="14"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -3216,8 +3210,8 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="3" t="s">
         <v>111</v>
       </c>
@@ -3226,10 +3220,10 @@
       <c r="F46" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G46" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H46" s="18"/>
+      <c r="G46" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="14"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -3237,8 +3231,8 @@
       <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="3" t="s">
         <v>112</v>
       </c>
@@ -3247,10 +3241,10 @@
       <c r="F47" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G47" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H47" s="18"/>
+      <c r="G47" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" s="14"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -3258,8 +3252,8 @@
       <c r="M47" s="3"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="3" t="s">
         <v>113</v>
       </c>
@@ -3268,10 +3262,10 @@
       <c r="F48" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G48" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H48" s="18"/>
+      <c r="G48" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H48" s="14"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -3279,8 +3273,8 @@
       <c r="M48" s="3"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="3" t="s">
         <v>114</v>
       </c>
@@ -3289,10 +3283,10 @@
       <c r="F49" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G49" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H49" s="18"/>
+      <c r="G49" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" s="14"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -3300,8 +3294,8 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="3" t="s">
         <v>115</v>
       </c>
@@ -3310,10 +3304,10 @@
       <c r="F50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G50" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="18"/>
+      <c r="G50" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="14"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -3321,8 +3315,8 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="3" t="s">
         <v>116</v>
       </c>
@@ -3331,10 +3325,10 @@
       <c r="F51" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G51" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H51" s="18"/>
+      <c r="G51" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" s="14"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -3342,8 +3336,8 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="3" t="s">
         <v>117</v>
       </c>
@@ -3352,10 +3346,10 @@
       <c r="F52" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G52" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H52" s="18"/>
+      <c r="G52" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" s="14"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -3363,8 +3357,8 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="3" t="s">
         <v>118</v>
       </c>
@@ -3373,10 +3367,10 @@
       <c r="F53" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G53" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H53" s="18"/>
+      <c r="G53" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" s="14"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -3384,8 +3378,8 @@
       <c r="M53" s="3"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="3" t="s">
         <v>119</v>
       </c>
@@ -3394,10 +3388,10 @@
       <c r="F54" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G54" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H54" s="18"/>
+      <c r="G54" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" s="14"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -3405,8 +3399,8 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="3" t="s">
         <v>120</v>
       </c>
@@ -3415,10 +3409,10 @@
       <c r="F55" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G55" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H55" s="18"/>
+      <c r="G55" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="14"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -3426,8 +3420,8 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="3" t="s">
         <v>121</v>
       </c>
@@ -3436,10 +3430,10 @@
       <c r="F56" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G56" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H56" s="18"/>
+      <c r="G56" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" s="14"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -3447,8 +3441,8 @@
       <c r="M56" s="3"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="3" t="s">
         <v>122</v>
       </c>
@@ -3457,10 +3451,10 @@
       <c r="F57" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G57" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H57" s="18"/>
+      <c r="G57" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" s="14"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -3468,8 +3462,8 @@
       <c r="M57" s="3"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="3" t="s">
         <v>123</v>
       </c>
@@ -3478,10 +3472,10 @@
       <c r="F58" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G58" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H58" s="18"/>
+      <c r="G58" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" s="14"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -3489,8 +3483,8 @@
       <c r="M58" s="3"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="3" t="s">
         <v>124</v>
       </c>
@@ -3499,10 +3493,10 @@
       <c r="F59" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G59" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H59" s="18"/>
+      <c r="G59" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" s="14"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -3510,8 +3504,8 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="3" t="s">
         <v>125</v>
       </c>
@@ -3520,10 +3514,10 @@
       <c r="F60" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G60" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H60" s="18"/>
+      <c r="G60" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" s="14"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -3531,8 +3525,8 @@
       <c r="M60" s="3"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="3" t="s">
         <v>126</v>
       </c>
@@ -3541,10 +3535,10 @@
       <c r="F61" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G61" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H61" s="18"/>
+      <c r="G61" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61" s="14"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -3552,8 +3546,8 @@
       <c r="M61" s="3"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="3" t="s">
         <v>127</v>
       </c>
@@ -3562,10 +3556,10 @@
       <c r="F62" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G62" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H62" s="18"/>
+      <c r="G62" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H62" s="14"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -3573,8 +3567,8 @@
       <c r="M62" s="3"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="3" t="s">
         <v>128</v>
       </c>
@@ -3583,10 +3577,10 @@
       <c r="F63" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G63" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H63" s="18"/>
+      <c r="G63" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" s="14"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -3594,8 +3588,8 @@
       <c r="M63" s="3"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="3" t="s">
         <v>129</v>
       </c>
@@ -3604,10 +3598,10 @@
       <c r="F64" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G64" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H64" s="18"/>
+      <c r="G64" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" s="14"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -3615,8 +3609,8 @@
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
       <c r="C65" s="3" t="s">
         <v>130</v>
       </c>
@@ -3625,10 +3619,10 @@
       <c r="F65" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G65" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H65" s="18"/>
+      <c r="G65" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H65" s="14"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -3636,10 +3630,10 @@
       <c r="M65" s="3"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="14" t="s">
         <v>132</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -3650,10 +3644,10 @@
       <c r="F66" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G66" s="18" t="s">
+      <c r="G66" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H66" s="18"/>
+      <c r="H66" s="14"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -3661,8 +3655,8 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="21"/>
-      <c r="B67" s="17" t="s">
+      <c r="A67" s="17"/>
+      <c r="B67" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -3673,10 +3667,10 @@
       <c r="F67" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H67" s="18"/>
+      <c r="H67" s="14"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -3684,8 +3678,8 @@
       <c r="M67" s="3"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="21"/>
-      <c r="B68" s="17"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="3" t="s">
         <v>135</v>
       </c>
@@ -3694,10 +3688,10 @@
       <c r="F68" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G68" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H68" s="18"/>
+      <c r="H68" s="14"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -3705,8 +3699,8 @@
       <c r="M68" s="3"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="21"/>
-      <c r="B69" s="17"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="3" t="s">
         <v>136</v>
       </c>
@@ -3715,10 +3709,10 @@
       <c r="F69" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G69" s="18" t="s">
+      <c r="G69" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H69" s="18"/>
+      <c r="H69" s="14"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -3726,8 +3720,8 @@
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="21"/>
-      <c r="B70" s="17"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="14"/>
       <c r="C70" s="3" t="s">
         <v>137</v>
       </c>
@@ -3736,10 +3730,10 @@
       <c r="F70" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G70" s="18" t="s">
+      <c r="G70" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H70" s="18"/>
+      <c r="H70" s="14"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
@@ -3747,8 +3741,8 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="21"/>
-      <c r="B71" s="17"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="14"/>
       <c r="C71" s="3" t="s">
         <v>138</v>
       </c>
@@ -3757,10 +3751,10 @@
       <c r="F71" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G71" s="18" t="s">
+      <c r="G71" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H71" s="18"/>
+      <c r="H71" s="14"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -3768,8 +3762,8 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="21"/>
-      <c r="B72" s="17"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="3" t="s">
         <v>139</v>
       </c>
@@ -3778,10 +3772,10 @@
       <c r="F72" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G72" s="18" t="s">
+      <c r="G72" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H72" s="18"/>
+      <c r="H72" s="14"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -3789,8 +3783,8 @@
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="21"/>
-      <c r="B73" s="17"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="3" t="s">
         <v>140</v>
       </c>
@@ -3799,10 +3793,10 @@
       <c r="F73" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G73" s="18" t="s">
+      <c r="G73" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H73" s="18"/>
+      <c r="H73" s="14"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
@@ -3812,8 +3806,8 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="21"/>
-      <c r="B74" s="17" t="s">
+      <c r="A74" s="17"/>
+      <c r="B74" s="14" t="s">
         <v>142</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -3824,10 +3818,10 @@
       <c r="F74" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G74" s="18" t="s">
+      <c r="G74" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H74" s="18"/>
+      <c r="H74" s="14"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
@@ -3837,8 +3831,8 @@
       </c>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="21"/>
-      <c r="B75" s="17"/>
+      <c r="A75" s="17"/>
+      <c r="B75" s="14"/>
       <c r="C75" s="3" t="s">
         <v>145</v>
       </c>
@@ -3847,10 +3841,10 @@
       <c r="F75" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G75" s="18" t="s">
+      <c r="G75" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H75" s="18"/>
+      <c r="H75" s="14"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -3858,8 +3852,8 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="21"/>
-      <c r="B76" s="17"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="3" t="s">
         <v>146</v>
       </c>
@@ -3868,10 +3862,10 @@
       <c r="F76" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G76" s="18" t="s">
+      <c r="G76" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H76" s="18"/>
+      <c r="H76" s="14"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -3879,8 +3873,8 @@
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="21"/>
-      <c r="B77" s="17"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="3" t="s">
         <v>147</v>
       </c>
@@ -3889,10 +3883,10 @@
       <c r="F77" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G77" s="18" t="s">
+      <c r="G77" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H77" s="18"/>
+      <c r="H77" s="14"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -3900,8 +3894,8 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="21"/>
-      <c r="B78" s="17"/>
+      <c r="A78" s="17"/>
+      <c r="B78" s="14"/>
       <c r="C78" s="3" t="s">
         <v>148</v>
       </c>
@@ -3910,10 +3904,10 @@
       <c r="F78" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G78" s="18" t="s">
+      <c r="G78" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H78" s="18"/>
+      <c r="H78" s="14"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -3921,8 +3915,8 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="21"/>
-      <c r="B79" s="17"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="14"/>
       <c r="C79" s="3" t="s">
         <v>149</v>
       </c>
@@ -3931,10 +3925,10 @@
       <c r="F79" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G79" s="18" t="s">
+      <c r="G79" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H79" s="18"/>
+      <c r="H79" s="14"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -3942,8 +3936,8 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="21"/>
-      <c r="B80" s="17" t="s">
+      <c r="A80" s="17"/>
+      <c r="B80" s="14" t="s">
         <v>150</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -3954,10 +3948,10 @@
       <c r="F80" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G80" s="18" t="s">
+      <c r="G80" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H80" s="18"/>
+      <c r="H80" s="14"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -3965,8 +3959,8 @@
       <c r="M80" s="3"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="21"/>
-      <c r="B81" s="17"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="14"/>
       <c r="C81" s="3" t="s">
         <v>152</v>
       </c>
@@ -3975,10 +3969,10 @@
       <c r="F81" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G81" s="18" t="s">
+      <c r="G81" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H81" s="18"/>
+      <c r="H81" s="14"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
@@ -3986,8 +3980,8 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="21"/>
-      <c r="B82" s="17"/>
+      <c r="A82" s="17"/>
+      <c r="B82" s="14"/>
       <c r="C82" s="3" t="s">
         <v>153</v>
       </c>
@@ -3996,10 +3990,10 @@
       <c r="F82" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G82" s="18" t="s">
+      <c r="G82" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H82" s="18"/>
+      <c r="H82" s="14"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -4007,8 +4001,8 @@
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="21"/>
-      <c r="B83" s="17"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="14"/>
       <c r="C83" s="3" t="s">
         <v>154</v>
       </c>
@@ -4017,10 +4011,10 @@
       <c r="F83" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G83" s="18" t="s">
+      <c r="G83" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H83" s="18"/>
+      <c r="H83" s="14"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -4028,8 +4022,8 @@
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="21"/>
-      <c r="B84" s="17"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="3" t="s">
         <v>155</v>
       </c>
@@ -4038,10 +4032,10 @@
       <c r="F84" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G84" s="18" t="s">
+      <c r="G84" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H84" s="18"/>
+      <c r="H84" s="14"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -4049,8 +4043,8 @@
       <c r="M84" s="3"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="21"/>
-      <c r="B85" s="17"/>
+      <c r="A85" s="17"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="3" t="s">
         <v>156</v>
       </c>
@@ -4059,10 +4053,10 @@
       <c r="F85" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G85" s="18" t="s">
+      <c r="G85" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H85" s="18"/>
+      <c r="H85" s="14"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -4070,8 +4064,8 @@
       <c r="M85" s="3"/>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="21"/>
-      <c r="B86" s="17"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="14"/>
       <c r="C86" s="3" t="s">
         <v>157</v>
       </c>
@@ -4080,10 +4074,10 @@
       <c r="F86" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G86" s="18" t="s">
+      <c r="G86" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H86" s="18"/>
+      <c r="H86" s="14"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
@@ -4091,8 +4085,8 @@
       <c r="M86" s="3"/>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="21"/>
-      <c r="B87" s="17"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="14"/>
       <c r="C87" s="3" t="s">
         <v>158</v>
       </c>
@@ -4101,10 +4095,10 @@
       <c r="F87" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G87" s="18" t="s">
+      <c r="G87" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H87" s="18"/>
+      <c r="H87" s="14"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
@@ -4112,8 +4106,8 @@
       <c r="M87" s="3"/>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="22"/>
-      <c r="B88" s="17"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="14"/>
       <c r="C88" s="3" t="s">
         <v>159</v>
       </c>
@@ -4122,10 +4116,10 @@
       <c r="F88" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G88" s="18" t="s">
+      <c r="G88" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H88" s="18"/>
+      <c r="H88" s="14"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>

--- a/项目清单.xlsx
+++ b/项目清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" activeTab="1"/>
+    <workbookView windowWidth="22488" windowHeight="9347" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目总表" sheetId="3" r:id="rId1"/>
@@ -559,8 +559,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -573,36 +573,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -611,22 +581,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -642,8 +596,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,9 +606,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -664,11 +627,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -680,14 +642,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -702,8 +678,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,7 +688,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,7 +750,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,7 +780,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,7 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,79 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,7 +888,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,43 +924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,11 +992,42 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,15 +1047,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1036,6 +1058,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,39 +1087,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1095,10 +1095,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1107,133 +1107,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1632,7 +1632,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2164,7 +2164,7 @@
   <sheetPr/>
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
@@ -4155,8 +4155,8 @@
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -4214,8 +4214,12 @@
       <c r="F2" s="4">
         <v>43630</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="4">
+        <v>43630</v>
+      </c>
+      <c r="H2" s="4">
+        <v>43630</v>
+      </c>
       <c r="I2" s="5" t="s">
         <v>166</v>
       </c>
@@ -4237,8 +4241,12 @@
       <c r="F3" s="4">
         <v>43633</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="G3" s="4">
+        <v>43631</v>
+      </c>
+      <c r="H3" s="4">
+        <v>43633</v>
+      </c>
       <c r="I3" s="5" t="s">
         <v>168</v>
       </c>
@@ -4262,8 +4270,12 @@
       <c r="F4" s="4">
         <v>43638</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="G4" s="4">
+        <v>43634</v>
+      </c>
+      <c r="H4" s="4">
+        <v>43634</v>
+      </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9">

--- a/项目清单.xlsx
+++ b/项目清单.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347" activeTab="2"/>
+    <workbookView windowWidth="22488" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="项目总表" sheetId="3" r:id="rId1"/>
     <sheet name="OA系统" sheetId="2" r:id="rId2"/>
-    <sheet name="产品智能识别系统" sheetId="4" r:id="rId3"/>
-    <sheet name="OA功能清单" sheetId="1" r:id="rId4"/>
-    <sheet name="字码" sheetId="5" r:id="rId5"/>
+    <sheet name="集团研发部提成核算系统" sheetId="6" r:id="rId3"/>
+    <sheet name="奥特莱斯系列报备功能" sheetId="7" r:id="rId4"/>
+    <sheet name="产品智能识别系统" sheetId="4" r:id="rId5"/>
+    <sheet name="OA功能清单" sheetId="1" r:id="rId6"/>
+    <sheet name="字码" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OA系统!$A$1:$M$88</definedName>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="225">
   <si>
     <t>序号</t>
   </si>
@@ -80,6 +82,9 @@
     <t>需求整理</t>
   </si>
   <si>
+    <t>暂停</t>
+  </si>
+  <si>
     <t>需求收集阶段。行政部已经提供部分需求清单（未确定完成时间）。</t>
   </si>
   <si>
@@ -89,15 +94,18 @@
     <t>低</t>
   </si>
   <si>
+    <t>系统调研</t>
+  </si>
+  <si>
+    <t>需求调研阶段。目前完成研发部调研，5月12日完成 品牌公司调研。</t>
+  </si>
+  <si>
+    <t>工程报备系统</t>
+  </si>
+  <si>
     <t>未开始</t>
   </si>
   <si>
-    <t>需求调研阶段。目前完成研发部调研，5月12日完成 品牌公司调研。</t>
-  </si>
-  <si>
-    <t>工程报备系统</t>
-  </si>
-  <si>
     <t>奥特莱斯系列报备功能</t>
   </si>
   <si>
@@ -503,25 +511,163 @@
     <t>文件上传</t>
   </si>
   <si>
+    <t>集团研发部提成核算系统WBS</t>
+  </si>
+  <si>
     <t>模块</t>
   </si>
   <si>
+    <t>大功能</t>
+  </si>
+  <si>
+    <t>明细功能</t>
+  </si>
+  <si>
+    <t>预计MD</t>
+  </si>
+  <si>
+    <t>跟进人</t>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
+    <t>预计开始时间</t>
+  </si>
+  <si>
+    <t>预计结束时间</t>
+  </si>
+  <si>
+    <t>实际结束时间</t>
+  </si>
+  <si>
+    <t>第一阶段</t>
+  </si>
+  <si>
+    <t>系統分析</t>
+  </si>
+  <si>
+    <t>UR分析</t>
+  </si>
+  <si>
+    <t>已开始</t>
+  </si>
+  <si>
+    <t>系统分析</t>
+  </si>
+  <si>
+    <t>系统设计</t>
+  </si>
+  <si>
+    <t>数据库分析</t>
+  </si>
+  <si>
+    <t>数据库设计</t>
+  </si>
+  <si>
+    <t>系統Prototype製作</t>
+  </si>
+  <si>
+    <t>登入功能</t>
+  </si>
+  <si>
+    <t>工作台</t>
+  </si>
+  <si>
+    <t>发起核算</t>
+  </si>
+  <si>
+    <t>研发部门审核</t>
+  </si>
+  <si>
+    <t>设计师明细审核</t>
+  </si>
+  <si>
+    <t>部门设计师汇总审核</t>
+  </si>
+  <si>
+    <t>相关主档</t>
+  </si>
+  <si>
+    <t>Prototype内部演示</t>
+  </si>
+  <si>
+    <t>Prototype外部演示与需求调整</t>
+  </si>
+  <si>
+    <t>第二阶段</t>
+  </si>
+  <si>
+    <t>系统功能开发</t>
+  </si>
+  <si>
+    <t>交易功能开发</t>
+  </si>
+  <si>
+    <t>主档功能开发</t>
+  </si>
+  <si>
+    <t>设计师主档</t>
+  </si>
+  <si>
+    <t>人员主档</t>
+  </si>
+  <si>
+    <t>权限主档</t>
+  </si>
+  <si>
+    <t>通用功能开发</t>
+  </si>
+  <si>
+    <t>日志查询功能</t>
+  </si>
+  <si>
+    <t>历史封存数据查询</t>
+  </si>
+  <si>
+    <t>第三阶段</t>
+  </si>
+  <si>
+    <t>上线前准备</t>
+  </si>
+  <si>
+    <t>上线环境准备与测试</t>
+  </si>
+  <si>
+    <t>用户培训</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>汇总</t>
+  </si>
+  <si>
     <t>功能名称</t>
   </si>
   <si>
-    <t>预计开始时间</t>
-  </si>
-  <si>
-    <t>预计结束时间</t>
-  </si>
-  <si>
-    <t>实际结束时间</t>
+    <t>报备系统</t>
+  </si>
+  <si>
+    <t>商场资料库</t>
+  </si>
+  <si>
+    <t>把目前拥有的图片数据库匹配拿取品号一起上传</t>
+  </si>
+  <si>
+    <t>报备系列品类配对库</t>
+  </si>
+  <si>
+    <t>ERP</t>
+  </si>
+  <si>
+    <t>下单审批事件修改</t>
+  </si>
+  <si>
+    <t>退款审批事件修改</t>
   </si>
   <si>
     <t>图片入库</t>
-  </si>
-  <si>
-    <t>把目前拥有的图片数据库匹配拿取品号一起上传</t>
   </si>
   <si>
     <t>图片定时更新入库</t>
@@ -559,10 +705,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -570,6 +716,42 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,6 +763,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -596,122 +855,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,7 +872,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.25"/>
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,13 +890,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,61 +968,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,49 +980,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,13 +1016,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,30 +1034,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -944,6 +1090,30 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -991,10 +1161,64 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,36 +1241,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1058,17 +1252,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,10 +1278,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1107,137 +1290,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1250,14 +1433,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1265,34 +1487,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1301,8 +1502,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1631,8 +1838,8 @@
   <sheetPr/>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1640,362 +1847,370 @@
     <col min="1" max="1" width="5.66666666666667" customWidth="1"/>
     <col min="2" max="2" width="27.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="9.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="12.8888888888889" customWidth="1"/>
     <col min="5" max="6" width="7.66666666666667" customWidth="1"/>
     <col min="7" max="10" width="14.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="22.2222222222222" style="19" customWidth="1"/>
+    <col min="11" max="11" width="22.2222222222222" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="23" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="31" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:11">
-      <c r="A3" s="3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="28">
+        <v>43629</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:11">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G4" s="29">
+        <v>43636</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29">
+        <v>43636</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="31"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" ht="43.2" spans="1:11">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="28">
+        <v>43630</v>
+      </c>
+      <c r="H7" s="28">
+        <v>43644</v>
+      </c>
+      <c r="I7" s="28">
+        <v>43630</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" ht="43.2" spans="1:11">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="28">
         <v>43629</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" ht="43.2" spans="1:11">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="23"/>
-    </row>
-    <row r="7" ht="43.2" spans="1:11">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="21">
-        <v>43630</v>
-      </c>
-      <c r="H7" s="21">
-        <v>43644</v>
-      </c>
-      <c r="I7" s="21">
-        <v>43630</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="23"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="23"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="23"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="23"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="23"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="23"/>
-    </row>
-    <row r="14" ht="43.2" spans="1:11">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="21">
-        <v>43629</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="23" t="s">
-        <v>37</v>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="31" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2011,7 +2226,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="23"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3">
@@ -2026,7 +2241,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="23"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3">
@@ -2041,7 +2256,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="23"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="3">
@@ -2056,7 +2271,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="23"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3">
@@ -2071,7 +2286,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="23"/>
+      <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="3">
@@ -2086,7 +2301,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="23"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3">
@@ -2101,7 +2316,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="23"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3">
@@ -2116,7 +2331,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="23"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3">
@@ -2131,7 +2346,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="23"/>
+      <c r="K23" s="31"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3">
@@ -2146,7 +2361,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="23"/>
+      <c r="K24" s="31"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2183,586 +2398,586 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="I1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="J1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="K1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:13">
-      <c r="A2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10" t="s">
+    <row r="2" s="17" customFormat="1" spans="1:13">
+      <c r="A2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="24">
         <v>43631</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="24">
         <v>43633</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="24">
         <v>43632</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="24">
         <v>43633</v>
       </c>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" s="6" customFormat="1" spans="1:13">
-      <c r="A3" s="12"/>
-      <c r="B3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10" t="s">
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" s="17" customFormat="1" spans="1:13">
+      <c r="A3" s="22"/>
+      <c r="B3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="24">
         <v>43634</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="24">
         <v>43635</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="24">
         <v>43633</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" s="6" customFormat="1" spans="1:13">
-      <c r="A4" s="12"/>
-      <c r="B4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" s="6" customFormat="1" spans="1:13">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" s="17" customFormat="1" spans="1:13">
+      <c r="A4" s="22"/>
+      <c r="B4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+    </row>
+    <row r="5" s="17" customFormat="1" spans="1:13">
+      <c r="A5" s="22"/>
+      <c r="B5" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="24">
         <v>43647</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="24">
         <v>43652</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" s="6" customFormat="1" spans="1:13">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10" t="s">
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" s="17" customFormat="1" spans="1:13">
+      <c r="A6" s="22"/>
+      <c r="B6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="24">
         <v>43647</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="24">
         <v>43652</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" s="6" customFormat="1" spans="1:13">
-      <c r="A7" s="12"/>
-      <c r="B7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" s="17" customFormat="1" spans="1:13">
+      <c r="A7" s="22"/>
+      <c r="B7" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="24">
         <v>43647</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="24">
         <v>43652</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" s="6" customFormat="1" spans="1:13">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10" t="s">
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" s="17" customFormat="1" spans="1:13">
+      <c r="A8" s="22"/>
+      <c r="B8" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="24">
         <v>43636</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="24">
         <v>43642</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" s="6" customFormat="1" spans="1:13">
-      <c r="A9" s="12"/>
-      <c r="B9" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10" t="s">
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" s="17" customFormat="1" spans="1:13">
+      <c r="A9" s="22"/>
+      <c r="B9" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="24">
         <v>43636</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="24">
         <v>43642</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" s="6" customFormat="1" spans="1:13">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" s="17" customFormat="1" spans="1:13">
+      <c r="A10" s="22"/>
+      <c r="B10" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="24">
         <v>43643</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="24">
         <v>43645</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" s="6" customFormat="1" spans="1:13">
-      <c r="A11" s="13"/>
-      <c r="B11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" s="17" customFormat="1" spans="1:13">
+      <c r="A11" s="23"/>
+      <c r="B11" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="24">
         <v>43643</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="24">
         <v>43645</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>61</v>
+      <c r="A12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="15">
+      <c r="G12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="24">
         <v>43645</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="24">
         <v>43646</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14" t="s">
-        <v>64</v>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="15">
+      <c r="G13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="24">
         <v>43645</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="24">
         <v>43646</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14" t="s">
-        <v>65</v>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="15">
+      <c r="G14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="24">
         <v>43645</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="24">
         <v>43646</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14" t="s">
-        <v>66</v>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="15">
+      <c r="G15" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="24">
         <v>43645</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="24">
         <v>43646</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14" t="s">
-        <v>67</v>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="15">
+      <c r="G16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="24">
         <v>43645</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="24">
         <v>43646</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>69</v>
+      <c r="A17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="10"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14" t="s">
-        <v>74</v>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="10"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="10"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="10"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="10"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="10"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14" t="s">
-        <v>82</v>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="14"/>
+      <c r="G23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="10"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2770,18 +2985,18 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="14"/>
+      <c r="G24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="10"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2789,18 +3004,18 @@
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" s="14"/>
+      <c r="G25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="10"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -2808,18 +3023,18 @@
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="14"/>
+      <c r="G26" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="10"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -2827,18 +3042,18 @@
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="14"/>
+      <c r="G27" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="10"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -2846,18 +3061,18 @@
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="14"/>
+      <c r="G28" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="10"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -2865,18 +3080,18 @@
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="14"/>
+      <c r="G29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="10"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -2884,16 +3099,16 @@
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -2901,18 +3116,18 @@
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" s="14"/>
+      <c r="G31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="10"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -2920,16 +3135,16 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -2937,18 +3152,18 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="14"/>
+      <c r="G33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="10"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -2956,18 +3171,18 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" s="14"/>
+      <c r="G34" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="10"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -2975,18 +3190,18 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="14"/>
+      <c r="G35" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" s="10"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -2994,18 +3209,18 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="14"/>
+      <c r="G36" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="10"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -3013,24 +3228,24 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>98</v>
+      <c r="A37" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" s="10"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -3038,20 +3253,20 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" s="10"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -3059,20 +3274,20 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H39" s="10"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -3080,22 +3295,22 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14" t="s">
-        <v>103</v>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H40" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="10"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -3103,20 +3318,20 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="10"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -3124,22 +3339,22 @@
       <c r="M41" s="3"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14" t="s">
-        <v>106</v>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H42" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="10"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -3147,20 +3362,20 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="14"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" s="10"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -3168,20 +3383,20 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" s="10"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -3189,20 +3404,20 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H45" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" s="10"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -3210,20 +3425,20 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H46" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" s="10"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -3231,20 +3446,20 @@
       <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H47" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H47" s="10"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -3252,20 +3467,20 @@
       <c r="M47" s="3"/>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="14"/>
-      <c r="B48" s="14"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H48" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" s="10"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -3273,20 +3488,20 @@
       <c r="M48" s="3"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="14"/>
-      <c r="B49" s="14"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H49" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="10"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -3294,20 +3509,20 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
       <c r="C50" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H50" s="10"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -3315,20 +3530,20 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="14"/>
-      <c r="B51" s="14"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G51" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H51" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="10"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -3336,20 +3551,20 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="14"/>
-      <c r="B52" s="14"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H52" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H52" s="10"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -3357,20 +3572,20 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
       <c r="C53" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G53" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H53" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H53" s="10"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -3378,20 +3593,20 @@
       <c r="M53" s="3"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="14"/>
-      <c r="B54" s="14"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H54" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54" s="10"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -3399,20 +3614,20 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G55" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H55" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" s="10"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -3420,20 +3635,20 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
       <c r="C56" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H56" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H56" s="10"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -3441,20 +3656,20 @@
       <c r="M56" s="3"/>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H57" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" s="10"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -3462,20 +3677,20 @@
       <c r="M57" s="3"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
       <c r="C58" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H58" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" s="10"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -3483,20 +3698,20 @@
       <c r="M58" s="3"/>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H59" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H59" s="10"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -3504,20 +3719,20 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G60" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H60" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H60" s="10"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -3525,20 +3740,20 @@
       <c r="M60" s="3"/>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G61" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H61" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H61" s="10"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -3546,20 +3761,20 @@
       <c r="M61" s="3"/>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H62" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H62" s="10"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -3567,20 +3782,20 @@
       <c r="M62" s="3"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H63" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H63" s="10"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -3588,20 +3803,20 @@
       <c r="M63" s="3"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
       <c r="C64" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H64" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H64" s="10"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -3609,20 +3824,20 @@
       <c r="M64" s="3"/>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
       <c r="C65" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H65" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H65" s="10"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -3630,24 +3845,24 @@
       <c r="M65" s="3"/>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>132</v>
+      <c r="A66" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H66" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H66" s="10"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -3655,22 +3870,22 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="17"/>
-      <c r="B67" s="14" t="s">
-        <v>65</v>
+      <c r="A67" s="14"/>
+      <c r="B67" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H67" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H67" s="10"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -3678,20 +3893,20 @@
       <c r="M67" s="3"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="17"/>
-      <c r="B68" s="14"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H68" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H68" s="10"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -3699,20 +3914,20 @@
       <c r="M68" s="3"/>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="17"/>
-      <c r="B69" s="14"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G69" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H69" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H69" s="10"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -3720,20 +3935,20 @@
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="17"/>
-      <c r="B70" s="14"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="10"/>
       <c r="C70" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G70" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H70" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H70" s="10"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
@@ -3741,20 +3956,20 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="17"/>
-      <c r="B71" s="14"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H71" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H71" s="10"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -3762,20 +3977,20 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="17"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H72" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H72" s="10"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -3783,68 +3998,68 @@
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="17"/>
-      <c r="B73" s="14"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="10"/>
       <c r="C73" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G73" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H73" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H73" s="10"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="17"/>
-      <c r="B74" s="14" t="s">
-        <v>142</v>
+      <c r="A74" s="14"/>
+      <c r="B74" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G74" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H74" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H74" s="10"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="17"/>
-      <c r="B75" s="14"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="10"/>
       <c r="C75" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G75" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H75" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H75" s="10"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
@@ -3852,20 +4067,20 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="17"/>
-      <c r="B76" s="14"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="10"/>
       <c r="C76" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G76" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H76" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H76" s="10"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
@@ -3873,20 +4088,20 @@
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="17"/>
-      <c r="B77" s="14"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="10"/>
       <c r="C77" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G77" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H77" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H77" s="10"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -3894,20 +4109,20 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="17"/>
-      <c r="B78" s="14"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="10"/>
       <c r="C78" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H78" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H78" s="10"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
@@ -3915,20 +4130,20 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="17"/>
-      <c r="B79" s="14"/>
+      <c r="A79" s="14"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G79" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H79" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H79" s="10"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
@@ -3936,22 +4151,22 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="17"/>
-      <c r="B80" s="14" t="s">
-        <v>150</v>
+      <c r="A80" s="14"/>
+      <c r="B80" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G80" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H80" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H80" s="10"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
@@ -3959,20 +4174,20 @@
       <c r="M80" s="3"/>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="17"/>
-      <c r="B81" s="14"/>
+      <c r="A81" s="14"/>
+      <c r="B81" s="10"/>
       <c r="C81" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G81" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H81" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H81" s="10"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
@@ -3980,20 +4195,20 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="17"/>
-      <c r="B82" s="14"/>
+      <c r="A82" s="14"/>
+      <c r="B82" s="10"/>
       <c r="C82" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G82" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H82" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H82" s="10"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -4001,20 +4216,20 @@
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="17"/>
-      <c r="B83" s="14"/>
+      <c r="A83" s="14"/>
+      <c r="B83" s="10"/>
       <c r="C83" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G83" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H83" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H83" s="10"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
@@ -4022,20 +4237,20 @@
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="17"/>
-      <c r="B84" s="14"/>
+      <c r="A84" s="14"/>
+      <c r="B84" s="10"/>
       <c r="C84" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G84" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H84" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H84" s="10"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -4043,20 +4258,20 @@
       <c r="M84" s="3"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="17"/>
-      <c r="B85" s="14"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="10"/>
       <c r="C85" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H85" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H85" s="10"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -4064,20 +4279,20 @@
       <c r="M85" s="3"/>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="17"/>
-      <c r="B86" s="14"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="10"/>
       <c r="C86" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H86" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H86" s="10"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
@@ -4085,20 +4300,20 @@
       <c r="M86" s="3"/>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="17"/>
-      <c r="B87" s="14"/>
+      <c r="A87" s="14"/>
+      <c r="B87" s="10"/>
       <c r="C87" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G87" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H87" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H87" s="10"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
@@ -4106,20 +4321,20 @@
       <c r="M87" s="3"/>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="18"/>
-      <c r="B88" s="14"/>
+      <c r="A88" s="15"/>
+      <c r="B88" s="10"/>
       <c r="C88" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G88" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H88" s="14"/>
+        <v>102</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H88" s="10"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
@@ -4153,10 +4368,1060 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="23.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="7" width="7.66666666666667" customWidth="1"/>
+    <col min="8" max="11" width="14.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="12">
+        <v>43636</v>
+      </c>
+      <c r="I4" s="12">
+        <v>43640</v>
+      </c>
+      <c r="J4" s="12">
+        <v>43636</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="12">
+        <v>43636</v>
+      </c>
+      <c r="I5" s="12">
+        <v>43640</v>
+      </c>
+      <c r="J5" s="12">
+        <v>43636</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="12">
+        <v>43636</v>
+      </c>
+      <c r="I6" s="12">
+        <v>43640</v>
+      </c>
+      <c r="J6" s="12">
+        <v>43636</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="12">
+        <v>43636</v>
+      </c>
+      <c r="I7" s="12">
+        <v>43640</v>
+      </c>
+      <c r="J7" s="12">
+        <v>43636</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>43641</v>
+      </c>
+      <c r="I8" s="12">
+        <v>43649</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>43641</v>
+      </c>
+      <c r="I9" s="12">
+        <v>43649</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12">
+        <v>43641</v>
+      </c>
+      <c r="I10" s="12">
+        <v>43649</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
+        <v>43641</v>
+      </c>
+      <c r="I11" s="12">
+        <v>43649</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>43641</v>
+      </c>
+      <c r="I12" s="12">
+        <v>43649</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>43641</v>
+      </c>
+      <c r="I13" s="12">
+        <v>43649</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12">
+        <v>43641</v>
+      </c>
+      <c r="I14" s="12">
+        <v>43649</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>43650</v>
+      </c>
+      <c r="I15" s="12">
+        <v>43650</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12">
+        <v>43651</v>
+      </c>
+      <c r="I16" s="12">
+        <v>43651</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="10">
+        <v>2</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="10">
+        <v>2</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25" s="10">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="10">
+        <v>2</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="D29" s="10">
+        <v>2</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="16"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="14"/>
+      <c r="B32" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="15"/>
+      <c r="B33" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10">
+        <f>SUM(D4:D29)</f>
+        <v>36</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A4:A16"/>
+    <mergeCell ref="A18:A29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B29"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="5.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.8888888888889" customWidth="1"/>
+    <col min="4" max="5" width="7.66666666666667" customWidth="1"/>
+    <col min="6" max="9" width="14.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="47.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -4173,25 +5438,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -4203,10 +5468,10 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4">
         <v>43630</v>
@@ -4221,7 +5486,7 @@
         <v>43630</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4230,10 +5495,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" s="4">
         <v>43631</v>
@@ -4248,7 +5513,7 @@
         <v>43633</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4256,13 +5521,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4">
         <v>43634</v>
@@ -4283,13 +5548,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" s="4">
         <v>43639</v>
@@ -4306,13 +5571,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="4">
         <v>43641</v>
@@ -4329,13 +5594,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4">
         <v>43644</v>
@@ -4353,7 +5618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:G21"/>
@@ -4373,191 +5638,191 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1"/>
       <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
         <v>78</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="1"/>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="1"/>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1"/>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="1"/>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="1"/>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="1"/>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="1"/>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="1"/>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="1"/>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4570,7 +5835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A4"/>
@@ -4598,7 +5863,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
